--- a/Jogos_da_Semana_FlashScore_2025-05-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ35"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,31 +647,31 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P2" t="n">
         <v>1.44</v>
@@ -686,10 +686,10 @@
         <v>1.83</v>
       </c>
       <c r="T2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V2" t="n">
         <v>9.5</v>
@@ -716,7 +716,7 @@
         <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE2" t="n">
         <v>9.5</v>
@@ -769,100 +769,100 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="M3" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="O3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S3" t="n">
         <v>2.05</v>
       </c>
-      <c r="P3" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.22</v>
-      </c>
       <c r="T3" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="U3" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="V3" t="n">
         <v>9.5</v>
       </c>
       <c r="W3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X3" t="n">
         <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA3" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD3" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="AE3" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF3" t="n">
         <v>17</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI3" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AJ3" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>thPCUuEb</t>
+          <t>SnYDGKtT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -872,68 +872,68 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>AUSTRIA - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>LASK</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>SK Rapid</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I4" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="J4" t="n">
         <v>1.04</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M4" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="N4" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O4" t="n">
         <v>2.25</v>
       </c>
       <c r="P4" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="S4" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="T4" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="U4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="V4" t="n">
         <v>9.75</v>
@@ -942,31 +942,31 @@
         <v>26</v>
       </c>
       <c r="X4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD4" t="n">
         <v>250</v>
       </c>
       <c r="AE4" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG4" t="n">
         <v>10.75</v>
@@ -978,13 +978,13 @@
         <v>22</v>
       </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ID6pLSEF</t>
+          <t>thPCUuEb</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -994,59 +994,119 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pirin Blagoevgrad</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
+          <t>Charleroi</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13</v>
+      </c>
+      <c r="V5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>25</v>
+      </c>
+      <c r="X5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>YqXsWlet</t>
+          <t>ID6pLSEF</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1056,59 +1116,119 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Inter Palmira</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
+          <t>Pirin Blagoevgrad</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U6" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="W6" t="n">
+        <v>12</v>
+      </c>
+      <c r="X6" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UBQjUSPh</t>
+          <t>YqXsWlet</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1118,7 +1238,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1128,12 +1248,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Inter Palmira</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -1170,7 +1290,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8pW8XDpA</t>
+          <t>UBQjUSPh</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1180,22 +1300,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ECUADOR - SERIE B</t>
+          <t>COLOMBIA - PRIMERA B</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Guayaquil City</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gualaceo</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -1232,7 +1352,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>nuoEBWNj</t>
+          <t>8pW8XDpA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1242,7 +1362,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1252,12 +1372,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Chacaritas</t>
+          <t>Guayaquil City</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cumbaya</t>
+          <t>Gualaceo</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -1294,7 +1414,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>YeqC9UaM</t>
+          <t>nuoEBWNj</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1304,117 +1424,59 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>ECUADOR - SERIE B</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Chacaritas</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Enppi</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="U10" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="V10" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="W10" t="n">
-        <v>26</v>
-      </c>
-      <c r="X10" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>250</v>
-      </c>
+          <t>Cumbaya</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>110</v>
-      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>URUs48Nq</t>
+          <t>YeqC9UaM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1434,107 +1496,107 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>El Gaish</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Modern Sport</t>
+          <t>Enppi</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="H11" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="I11" t="n">
-        <v>2.55</v>
+        <v>4.05</v>
       </c>
       <c r="J11" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="K11" t="n">
-        <v>4.05</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="M11" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="N11" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="R11" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="S11" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>6.9</v>
+        <v>4.7</v>
       </c>
       <c r="U11" t="n">
-        <v>18.5</v>
+        <v>10.25</v>
       </c>
       <c r="V11" t="n">
-        <v>14</v>
+        <v>11.75</v>
       </c>
       <c r="W11" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="X11" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="Y11" t="n">
         <v>75</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.05</v>
+        <v>3.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AC11" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="AF11" t="n">
-        <v>10.75</v>
+        <v>19.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AH11" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AJ11" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>QgOj2nhd</t>
+          <t>URUs48Nq</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1554,107 +1616,107 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ghazl El Mahallah</t>
+          <t>El Gaish</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>El Ismaily</t>
+          <t>Modern Sport</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.32</v>
+        <v>3.7</v>
       </c>
       <c r="H12" t="n">
-        <v>2.7</v>
+        <v>2.37</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>2.57</v>
       </c>
       <c r="J12" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="K12" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="M12" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
         <v>1.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>2.72</v>
+        <v>2.27</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="T12" t="n">
-        <v>4.55</v>
+        <v>6.8</v>
       </c>
       <c r="U12" t="n">
-        <v>8.75</v>
+        <v>18</v>
       </c>
       <c r="V12" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="W12" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="X12" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="Y12" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Z12" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.1</v>
+        <v>5.1</v>
       </c>
       <c r="AB12" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>15.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH12" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AI12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>55</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>vcj3BjV9</t>
+          <t>QgOj2nhd</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1674,107 +1736,107 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ZED</t>
+          <t>Ghazl El Mahallah</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>El Ismaily</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.82</v>
+        <v>2.32</v>
       </c>
       <c r="H13" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2.62</v>
+        <v>3.8</v>
       </c>
       <c r="J13" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>4.15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="M13" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="N13" t="n">
-        <v>2.82</v>
+        <v>3.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="R13" t="n">
-        <v>2.32</v>
+        <v>2.57</v>
       </c>
       <c r="S13" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="U13" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V13" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="W13" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="X13" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Y13" t="n">
         <v>65</v>
       </c>
       <c r="Z13" t="n">
-        <v>5</v>
+        <v>4.15</v>
       </c>
       <c r="AA13" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AC13" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="AF13" t="n">
-        <v>10.75</v>
+        <v>17.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.25</v>
+        <v>16</v>
       </c>
       <c r="AH13" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AI13" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AJ13" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ddRI8BG8</t>
+          <t>vcj3BjV9</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1784,59 +1846,117 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Torpedo Kutaisi</t>
+          <t>ZED</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FC Gareji Sagarejo</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
+          <t>Smouha</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T14" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>35</v>
+      </c>
+      <c r="X14" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>150</v>
+      </c>
       <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
+      <c r="AE14" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4MUQ6koL</t>
+          <t>ddRI8BG8</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1846,7 +1966,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1856,12 +1976,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Telavi</t>
+          <t>Torpedo Kutaisi</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Samgurali</t>
+          <t>FC Gareji Sagarejo</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1898,7 +2018,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>67bQ2LSk</t>
+          <t>4MUQ6koL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1908,7 +2028,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1918,12 +2038,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Iberia 1999</t>
+          <t>Telavi</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gagra</t>
+          <t>Samgurali</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1960,7 +2080,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EX1Y0ac2</t>
+          <t>67bQ2LSk</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1970,7 +2090,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1980,12 +2100,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dinamo Batumi</t>
+          <t>Iberia 1999</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kolkheti 1913</t>
+          <t>Gagra</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -2022,7 +2142,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pU9WxKHs</t>
+          <t>EX1Y0ac2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2032,119 +2152,59 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ICELAND - BESTA DEILD KARLA</t>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Vestri</t>
+          <t>Dinamo Batumi</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vikingur Reykjavik</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K18" t="n">
-        <v>9</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="U18" t="n">
-        <v>37</v>
-      </c>
-      <c r="V18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="W18" t="n">
-        <v>100</v>
-      </c>
-      <c r="X18" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>21</v>
-      </c>
+          <t>Kolkheti 1913</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>QqTartfK</t>
+          <t>pU9WxKHs</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2154,7 +2214,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2164,105 +2224,109 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Afturelding</t>
+          <t>Vestri</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Valur</t>
+          <t>Vikingur Reykjavik</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="H19" t="n">
-        <v>4.3</v>
+        <v>4.05</v>
       </c>
       <c r="I19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K19" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.65</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.4</v>
-      </c>
       <c r="S19" t="n">
-        <v>2.72</v>
+        <v>2.12</v>
       </c>
       <c r="T19" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="U19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V19" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="W19" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="X19" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y19" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="Z19" t="n">
-        <v>27</v>
+        <v>8.75</v>
       </c>
       <c r="AA19" t="n">
-        <v>9.75</v>
+        <v>8</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC19" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="AD19" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="AE19" t="n">
-        <v>13.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF19" t="n">
-        <v>12</v>
+        <v>8.75</v>
       </c>
       <c r="AG19" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AH19" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>WKtmXFoJ</t>
+          <t>QqTartfK</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2282,105 +2346,105 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Breidablik</t>
+          <t>Afturelding</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Akranes</t>
+          <t>Valur</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.36</v>
+        <v>3.75</v>
       </c>
       <c r="H20" t="n">
-        <v>4.9</v>
+        <v>4.25</v>
       </c>
       <c r="I20" t="n">
-        <v>7.1</v>
+        <v>1.72</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="M20" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="N20" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="O20" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="P20" t="n">
         <v>1.21</v>
       </c>
       <c r="Q20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="R20" t="n">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="S20" t="n">
-        <v>2.42</v>
+        <v>2.75</v>
       </c>
       <c r="T20" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="U20" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="V20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>60</v>
+      </c>
+      <c r="X20" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG20" t="n">
         <v>8.75</v>
       </c>
-      <c r="W20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="X20" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>45</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>200</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>22</v>
-      </c>
       <c r="AH20" t="n">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="AI20" t="n">
-        <v>65</v>
+        <v>11.75</v>
       </c>
       <c r="AJ20" t="n">
-        <v>45</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OfwuZyH6</t>
+          <t>WKtmXFoJ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2400,109 +2464,105 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Fram</t>
+          <t>Breidablik</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>KA Akureyri</t>
+          <t>Akranes</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>1.36</v>
       </c>
       <c r="H21" t="n">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
+        <v>7</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="O21" t="n">
         <v>3.05</v>
       </c>
-      <c r="J21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K21" t="n">
-        <v>9</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M21" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="N21" t="n">
+      <c r="P21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="R21" t="n">
         <v>1.52</v>
       </c>
-      <c r="O21" t="n">
+      <c r="S21" t="n">
         <v>2.37</v>
       </c>
-      <c r="P21" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.52</v>
-      </c>
       <c r="T21" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="U21" t="n">
-        <v>13.5</v>
+        <v>9.75</v>
       </c>
       <c r="V21" t="n">
         <v>8.75</v>
       </c>
       <c r="W21" t="n">
+        <v>11</v>
+      </c>
+      <c r="X21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG21" t="n">
         <v>22</v>
       </c>
-      <c r="X21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>35</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>175</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AH21" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="AI21" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Is8vybnf</t>
+          <t>OfwuZyH6</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2522,109 +2582,109 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Vestmannaeyjar</t>
+          <t>Fram</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Hafnarfjordur</t>
+          <t>KA Akureyri</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.6</v>
+        <v>2.07</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K22" t="n">
+        <v>9</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="O22" t="n">
         <v>2.37</v>
       </c>
-      <c r="J22" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K22" t="n">
-        <v>10</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="O22" t="n">
-        <v>2.77</v>
-      </c>
       <c r="P22" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="S22" t="n">
-        <v>2.92</v>
+        <v>2.52</v>
       </c>
       <c r="T22" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="U22" t="n">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="V22" t="n">
-        <v>10.25</v>
+        <v>8.75</v>
       </c>
       <c r="W22" t="n">
+        <v>21</v>
+      </c>
+      <c r="X22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC22" t="n">
         <v>35</v>
       </c>
-      <c r="X22" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>26</v>
-      </c>
       <c r="AD22" t="n">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="AE22" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AG22" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="AI22" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AJ22" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AkravXhn</t>
+          <t>Is8vybnf</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2634,7 +2694,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2644,105 +2704,109 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Stjarnan</t>
+          <t>Vestmannaeyjar</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>KR Reykjavik</t>
+          <t>Hafnarfjordur</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>2.45</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K23" t="n">
+        <v>9.5</v>
+      </c>
       <c r="L23" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="M23" t="n">
-        <v>6.4</v>
+        <v>4.85</v>
       </c>
       <c r="N23" t="n">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="O23" t="n">
-        <v>3.35</v>
+        <v>2.55</v>
       </c>
       <c r="P23" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.25</v>
+        <v>3.45</v>
       </c>
       <c r="R23" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="S23" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="T23" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="U23" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="V23" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="W23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X23" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Z23" t="n">
-        <v>35</v>
+        <v>9.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>10.25</v>
+        <v>7.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AD23" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AE23" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="AH23" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AI23" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>vk8r5GOH</t>
+          <t>AkravXhn</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2752,119 +2816,115 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>ICELAND - BESTA DEILD KARLA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Stjarnan</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>KR Reykjavik</t>
         </is>
       </c>
       <c r="G24" t="n">
         <v>2.4</v>
       </c>
       <c r="H24" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="M24" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O24" t="n">
         <v>3.35</v>
       </c>
-      <c r="I24" t="n">
-        <v>3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K24" t="n">
-        <v>9</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M24" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.91</v>
-      </c>
       <c r="P24" t="n">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="S24" t="n">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="T24" t="n">
-        <v>8.5</v>
+        <v>20</v>
       </c>
       <c r="U24" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="V24" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="W24" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="X24" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>28</v>
+        <v>15.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="AA24" t="n">
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="AB24" t="n">
-        <v>13.5</v>
+        <v>10.25</v>
       </c>
       <c r="AC24" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="AD24" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="AE24" t="n">
-        <v>9.25</v>
+        <v>21</v>
       </c>
       <c r="AF24" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AG24" t="n">
         <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AI24" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AJ24" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>bTsPNXqp</t>
+          <t>vk8r5GOH</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2874,59 +2934,119 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Auda</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Metta</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K25" t="n">
+        <v>11</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U25" t="n">
+        <v>12</v>
+      </c>
+      <c r="V25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W25" t="n">
+        <v>23</v>
+      </c>
+      <c r="X25" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>U93VzROr</t>
+          <t>bTsPNXqp</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2936,119 +3056,59 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Auda</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Molde</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K26" t="n">
-        <v>15</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M26" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="O26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T26" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U26" t="n">
-        <v>11</v>
-      </c>
-      <c r="V26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W26" t="n">
-        <v>19</v>
-      </c>
-      <c r="X26" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>29</v>
-      </c>
+          <t>Metta</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Qi5kIZiC</t>
+          <t>U93VzROr</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3058,50 +3118,50 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>NORWAY - ELITESERIEN</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Lyn</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mjondalen</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.45</v>
+        <v>1.91</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="I27" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="J27" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L27" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N27" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O27" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P27" t="n">
         <v>1.3</v>
@@ -3110,67 +3170,67 @@
         <v>3.4</v>
       </c>
       <c r="R27" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="S27" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="T27" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="U27" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="V27" t="n">
         <v>8.5</v>
       </c>
       <c r="W27" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="X27" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG27" t="n">
         <v>12</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AH27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI27" t="n">
         <v>26</v>
       </c>
-      <c r="Z27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>301</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF27" t="n">
+      <c r="AJ27" t="n">
         <v>29</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Kx34FKlU</t>
+          <t>Qi5kIZiC</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3180,119 +3240,119 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Lyn</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.83</v>
+        <v>1.48</v>
       </c>
       <c r="H28" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K28" t="n">
+        <v>15</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q28" t="n">
         <v>3.5</v>
       </c>
-      <c r="I28" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K28" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M28" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="N28" t="n">
+      <c r="R28" t="n">
         <v>1.8</v>
       </c>
-      <c r="O28" t="n">
+      <c r="S28" t="n">
         <v>1.91</v>
       </c>
-      <c r="P28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.02</v>
-      </c>
       <c r="T28" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="U28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>11</v>
+      </c>
+      <c r="X28" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA28" t="n">
         <v>9</v>
       </c>
-      <c r="V28" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="W28" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="X28" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AB28" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AC28" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AD28" t="n">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="AE28" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF28" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH28" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AI28" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AJ28" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>bNEeHtKH</t>
+          <t>Kx34FKlU</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3302,7 +3362,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3312,49 +3372,109 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Wisla</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Legnica</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
+          <t>Polonia Warszawa</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K29" t="n">
+        <v>11</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="n">
+        <v>8</v>
+      </c>
+      <c r="U29" t="n">
+        <v>9</v>
+      </c>
+      <c r="V29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W29" t="n">
+        <v>15</v>
+      </c>
+      <c r="X29" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>fTvP8w3e</t>
+          <t>bNEeHtKH</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3364,59 +3484,119 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - DIVISION 1</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Wisla</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Al Adalah</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
+          <t>Legnica</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K30" t="n">
+        <v>12</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="n">
+        <v>8</v>
+      </c>
+      <c r="U30" t="n">
+        <v>8</v>
+      </c>
+      <c r="V30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W30" t="n">
+        <v>12</v>
+      </c>
+      <c r="X30" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>jX1FGWRF</t>
+          <t>fTvP8w3e</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3431,17 +3611,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>SAUDI ARABIA - DIVISION 1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Domzale</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Al Adalah</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -3478,7 +3658,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>zNAOSCMh</t>
+          <t>jX1FGWRF</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3488,119 +3668,59 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Domzale</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="H32" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K32" t="n">
-        <v>13</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M32" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O32" t="n">
-        <v>2</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T32" t="n">
-        <v>10</v>
-      </c>
-      <c r="U32" t="n">
-        <v>15</v>
-      </c>
-      <c r="V32" t="n">
-        <v>10</v>
-      </c>
-      <c r="W32" t="n">
-        <v>26</v>
-      </c>
-      <c r="X32" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>26</v>
-      </c>
+          <t>Triglav</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ANgymNT7</t>
+          <t>zNAOSCMh</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3610,119 +3730,119 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.27</v>
+        <v>2.55</v>
       </c>
       <c r="H33" t="n">
         <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="J33" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K33" t="n">
-        <v>7.9</v>
+        <v>12</v>
       </c>
       <c r="L33" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M33" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N33" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="O33" t="n">
         <v>2</v>
       </c>
       <c r="P33" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.85</v>
+        <v>3.25</v>
       </c>
       <c r="R33" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S33" t="n">
         <v>2.2</v>
       </c>
       <c r="T33" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="U33" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z33" t="n">
-        <v>7.9</v>
+        <v>12</v>
       </c>
       <c r="AA33" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB33" t="n">
         <v>12</v>
       </c>
       <c r="AC33" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AD33" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="AE33" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AF33" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG33" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AH33" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AI33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ33" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ob3YKWrp</t>
+          <t>ANgymNT7</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3732,59 +3852,119 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Kudrivka-Nyva</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K34" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T34" t="n">
+        <v>9</v>
+      </c>
+      <c r="U34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>9</v>
+      </c>
+      <c r="W34" t="n">
+        <v>24</v>
+      </c>
+      <c r="X34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>W0OgSEjA</t>
+          <t>Ob3YKWrp</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3794,7 +3974,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3804,12 +3984,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Livyi Bereg</t>
+          <t>Kudrivka-Nyva</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Metalist 1925</t>
+          <t>Vorskla Poltava</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -3843,6 +4023,68 @@
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>W0OgSEjA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>29/05/2025</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Livyi Bereg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Metalist 1925</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2025-05-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-29.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
@@ -656,22 +656,22 @@
         <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P2" t="n">
         <v>1.44</v>
@@ -704,7 +704,7 @@
         <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA2" t="n">
         <v>6</v>
@@ -769,94 +769,94 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="O3" t="n">
         <v>1.9</v>
       </c>
       <c r="P3" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
         <v>2.05</v>
       </c>
       <c r="T3" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="U3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V3" t="n">
         <v>9.5</v>
       </c>
       <c r="W3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="X3" t="n">
         <v>19</v>
       </c>
       <c r="Y3" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>29</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -891,94 +891,94 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K4" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="L4" t="n">
         <v>1.2</v>
       </c>
       <c r="M4" t="n">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="N4" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="O4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S4" t="n">
         <v>2.25</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.37</v>
-      </c>
       <c r="T4" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="U4" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="V4" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
         <v>23</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD4" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="AE4" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -1013,91 +1013,91 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="H5" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
         <v>2.9</v>
       </c>
       <c r="J5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K5" t="n">
-        <v>10.25</v>
+        <v>13</v>
       </c>
       <c r="L5" t="n">
         <v>1.25</v>
       </c>
       <c r="M5" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="N5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O5" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T5" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U5" t="n">
+        <v>12</v>
+      </c>
+      <c r="V5" t="n">
+        <v>9</v>
+      </c>
+      <c r="W5" t="n">
+        <v>21</v>
+      </c>
+      <c r="X5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z5" t="n">
         <v>13</v>
       </c>
-      <c r="V5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W5" t="n">
-        <v>25</v>
-      </c>
-      <c r="X5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AA5" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AB5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AD5" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="AE5" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
         <v>29</v>
@@ -1135,25 +1135,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="I6" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="J6" t="n">
         <v>1.08</v>
       </c>
       <c r="K6" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.36</v>
       </c>
       <c r="M6" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="N6" t="n">
         <v>2.05</v>
@@ -1162,67 +1162,67 @@
         <v>1.7</v>
       </c>
       <c r="P6" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="T6" t="n">
         <v>5.6</v>
       </c>
       <c r="U6" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="V6" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="W6" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="X6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AD6" t="n">
         <v>800</v>
       </c>
       <c r="AE6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF6" t="n">
         <v>40</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AI6" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AJ6" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -1380,36 +1380,90 @@
           <t>Gualaceo</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.35</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="U9" t="n">
+        <v>9</v>
+      </c>
+      <c r="V9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W9" t="n">
+        <v>20</v>
+      </c>
+      <c r="X9" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>120</v>
+      </c>
       <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
+      <c r="AE9" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1442,36 +1496,90 @@
           <t>Cumbaya</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.45</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T10" t="n">
+        <v>7</v>
+      </c>
+      <c r="U10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>11</v>
+      </c>
+      <c r="W10" t="n">
+        <v>32</v>
+      </c>
+      <c r="X10" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>110</v>
+      </c>
       <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
+      <c r="AE10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1625,13 +1733,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="H12" t="n">
         <v>2.37</v>
       </c>
       <c r="I12" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="J12" t="n">
         <v>1.2</v>
@@ -1646,16 +1754,16 @@
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O12" t="n">
         <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
         <v>2.27</v>
@@ -1664,16 +1772,16 @@
         <v>1.57</v>
       </c>
       <c r="T12" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="U12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V12" t="n">
         <v>13.5</v>
       </c>
       <c r="W12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="X12" t="n">
         <v>50</v>
@@ -1685,7 +1793,7 @@
         <v>4.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AB12" t="n">
         <v>19</v>
@@ -1695,16 +1803,16 @@
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AG12" t="n">
         <v>10.75</v>
       </c>
       <c r="AH12" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI12" t="n">
         <v>32</v>
@@ -1745,31 +1853,31 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="I13" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J13" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="K13" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="L13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M13" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="N13" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O13" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P13" t="n">
         <v>1.75</v>
@@ -1778,53 +1886,53 @@
         <v>1.95</v>
       </c>
       <c r="R13" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="S13" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="T13" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="U13" t="n">
         <v>9</v>
       </c>
       <c r="V13" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="W13" t="n">
         <v>24</v>
       </c>
       <c r="X13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Z13" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="AA13" t="n">
         <v>5.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC13" t="n">
         <v>250</v>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI13" t="n">
         <v>65</v>
@@ -1865,77 +1973,77 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="H14" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="I14" t="n">
         <v>2.7</v>
       </c>
       <c r="J14" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="K14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="M14" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="N14" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P14" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R14" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="S14" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T14" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="U14" t="n">
         <v>12.5</v>
       </c>
       <c r="V14" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="W14" t="n">
         <v>35</v>
       </c>
       <c r="X14" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AA14" t="n">
         <v>5.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC14" t="n">
         <v>150</v>
       </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AF14" t="n">
         <v>11.5</v>
@@ -1950,7 +2058,7 @@
         <v>32</v>
       </c>
       <c r="AJ14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
@@ -1984,36 +2092,84 @@
           <t>FC Gareji Sagarejo</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.7</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.5</v>
+      </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U15" t="n">
+        <v>7</v>
+      </c>
+      <c r="V15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>12</v>
+      </c>
+      <c r="X15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2046,36 +2202,84 @@
           <t>Samgurali</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.42</v>
+      </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
+      <c r="T16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="U16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>10</v>
+      </c>
+      <c r="W16" t="n">
+        <v>40</v>
+      </c>
+      <c r="X16" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2108,36 +2312,84 @@
           <t>Gagra</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5.7</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.47</v>
+      </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="V17" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2170,36 +2422,84 @@
           <t>Kolkheti 1913</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.9</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
+      <c r="N18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.47</v>
+      </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="V18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2236,34 +2536,34 @@
         <v>4.75</v>
       </c>
       <c r="H19" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
         <v>1.6</v>
       </c>
       <c r="J19" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K19" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="L19" t="n">
         <v>1.19</v>
       </c>
       <c r="M19" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="N19" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O19" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="P19" t="n">
         <v>1.31</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="R19" t="n">
         <v>1.65</v>
@@ -2290,13 +2590,13 @@
         <v>37</v>
       </c>
       <c r="Z19" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA19" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB19" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC19" t="n">
         <v>55</v>
@@ -2479,7 +2779,7 @@
         <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -2499,7 +2799,7 @@
         <v>1.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="R21" t="n">
         <v>1.52</v>
@@ -2511,25 +2811,25 @@
         <v>12.5</v>
       </c>
       <c r="U21" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V21" t="n">
         <v>8.75</v>
       </c>
       <c r="W21" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="X21" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Y21" t="n">
         <v>17</v>
       </c>
       <c r="Z21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA21" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AB21" t="n">
         <v>15</v>
@@ -2541,7 +2841,7 @@
         <v>200</v>
       </c>
       <c r="AE21" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF21" t="n">
         <v>60</v>
@@ -2550,10 +2850,10 @@
         <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AI21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="n">
         <v>45</v>
@@ -2591,7 +2891,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="H22" t="n">
         <v>3.6</v>
@@ -2609,7 +2909,7 @@
         <v>1.17</v>
       </c>
       <c r="M22" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="N22" t="n">
         <v>1.52</v>
@@ -2618,22 +2918,22 @@
         <v>2.37</v>
       </c>
       <c r="P22" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="Q22" t="n">
         <v>3.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S22" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="T22" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="U22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V22" t="n">
         <v>8.75</v>
@@ -2642,10 +2942,10 @@
         <v>21</v>
       </c>
       <c r="X22" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y22" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z22" t="n">
         <v>9</v>
@@ -2663,10 +2963,10 @@
         <v>175</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG22" t="n">
         <v>11</v>
@@ -2675,10 +2975,10 @@
         <v>45</v>
       </c>
       <c r="AI22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
@@ -2716,7 +3016,7 @@
         <v>2.55</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I23" t="n">
         <v>2.45</v>
@@ -2725,37 +3025,37 @@
         <v>1.03</v>
       </c>
       <c r="K23" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="L23" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="M23" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="N23" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="O23" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="P23" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="R23" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S23" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="T23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U23" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="V23" t="n">
         <v>9.75</v>
@@ -2764,22 +3064,22 @@
         <v>30</v>
       </c>
       <c r="X23" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z23" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA23" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AB23" t="n">
         <v>10.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD23" t="n">
         <v>150</v>
@@ -2794,7 +3094,7 @@
         <v>9.75</v>
       </c>
       <c r="AH23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI23" t="n">
         <v>17</v>
@@ -2953,49 +3253,49 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K25" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N25" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="O25" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="P25" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q25" t="n">
         <v>2.75</v>
       </c>
       <c r="R25" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S25" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V25" t="n">
         <v>9.5</v>
@@ -3007,10 +3307,10 @@
         <v>19</v>
       </c>
       <c r="Y25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA25" t="n">
         <v>6</v>
@@ -3019,13 +3319,13 @@
         <v>13</v>
       </c>
       <c r="AC25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD25" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF25" t="n">
         <v>15</v>
@@ -3034,13 +3334,13 @@
         <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI25" t="n">
         <v>23</v>
       </c>
       <c r="AJ25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -3074,36 +3374,80 @@
           <t>Metta</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8.25</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.98</v>
+      </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
+      <c r="T26" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U26" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3137,13 +3481,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H27" t="n">
         <v>3.75</v>
       </c>
       <c r="I27" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J27" t="n">
         <v>1.03</v>
@@ -3158,7 +3502,7 @@
         <v>4.33</v>
       </c>
       <c r="N27" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="O27" t="n">
         <v>2.15</v>
@@ -3170,16 +3514,16 @@
         <v>3.4</v>
       </c>
       <c r="R27" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S27" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V27" t="n">
         <v>8.5</v>
@@ -3188,7 +3532,7 @@
         <v>17</v>
       </c>
       <c r="X27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y27" t="n">
         <v>21</v>
@@ -3215,13 +3559,13 @@
         <v>21</v>
       </c>
       <c r="AG27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH27" t="n">
         <v>41</v>
       </c>
       <c r="AI27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ27" t="n">
         <v>29</v>
@@ -3402,13 +3746,13 @@
         <v>3.75</v>
       </c>
       <c r="N29" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O29" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P29" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q29" t="n">
         <v>3</v>
@@ -3624,36 +3968,88 @@
           <t>Al Adalah</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4.7</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.75</v>
+      </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T31" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="U31" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="V31" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W31" t="n">
+        <v>13</v>
+      </c>
+      <c r="X31" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3686,36 +4082,96 @@
           <t>Triglav</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K32" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T32" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="U32" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3749,19 +4205,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H33" t="n">
         <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="J33" t="n">
         <v>1.04</v>
       </c>
       <c r="K33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L33" t="n">
         <v>1.22</v>
@@ -3794,10 +4250,10 @@
         <v>13</v>
       </c>
       <c r="V33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X33" t="n">
         <v>19</v>
@@ -3830,7 +4286,7 @@
         <v>10</v>
       </c>
       <c r="AH33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI33" t="n">
         <v>21</v>
@@ -3871,88 +4327,88 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="J34" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K34" t="n">
-        <v>7.7</v>
+        <v>12</v>
       </c>
       <c r="L34" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M34" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N34" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O34" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="P34" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="R34" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S34" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T34" t="n">
         <v>9</v>
       </c>
       <c r="U34" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V34" t="n">
         <v>9</v>
       </c>
       <c r="W34" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="X34" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y34" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z34" t="n">
-        <v>7.7</v>
+        <v>12</v>
       </c>
       <c r="AA34" t="n">
         <v>6.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC34" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AD34" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="AE34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF34" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AG34" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AI34" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-29.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
@@ -1028,16 +1028,16 @@
         <v>13</v>
       </c>
       <c r="L5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P5" t="n">
         <v>1.33</v>
@@ -1384,39 +1384,39 @@
         <v>2.15</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I9" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="N9" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="O9" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R9" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S9" t="n">
         <v>1.62</v>
       </c>
       <c r="T9" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="U9" t="n">
         <v>9</v>
@@ -1434,13 +1434,13 @@
         <v>40</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC9" t="n">
         <v>120</v>
@@ -1450,16 +1450,16 @@
         <v>7.7</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>45</v>
       </c>
       <c r="AI9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ9" t="n">
         <v>55</v>
@@ -1733,25 +1733,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H12" t="n">
         <v>2.37</v>
       </c>
       <c r="I12" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="J12" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="L12" t="n">
         <v>1.72</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="N12" t="n">
         <v>3.1</v>
@@ -1766,16 +1766,16 @@
         <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="S12" t="n">
         <v>1.57</v>
       </c>
       <c r="T12" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="U12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="V12" t="n">
         <v>13.5</v>
@@ -1790,13 +1790,13 @@
         <v>70</v>
       </c>
       <c r="Z12" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AA12" t="n">
         <v>5</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC12" t="n">
         <v>150</v>
@@ -1812,7 +1812,7 @@
         <v>10.75</v>
       </c>
       <c r="AH12" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI12" t="n">
         <v>32</v>
@@ -2093,23 +2093,23 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I15" t="n">
-        <v>3.7</v>
+        <v>4.25</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P15" t="n">
         <v>1.37</v>
@@ -2120,55 +2120,55 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="U15" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="V15" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="W15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG15" t="n">
         <v>12</v>
       </c>
-      <c r="X15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>450</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AH15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>40</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="16">
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="H16" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -2230,31 +2230,31 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="U16" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="V16" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="W16" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="X16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Z16" t="n">
         <v>8</v>
       </c>
       <c r="AA16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AC16" t="n">
         <v>55</v>
@@ -2263,22 +2263,22 @@
         <v>400</v>
       </c>
       <c r="AE16" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AF16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AG16" t="n">
         <v>7.6</v>
       </c>
-      <c r="AG16" t="n">
-        <v>7.3</v>
-      </c>
       <c r="AH16" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -2429,7 +2429,7 @@
         <v>3.45</v>
       </c>
       <c r="I18" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -2442,24 +2442,24 @@
         <v>1.65</v>
       </c>
       <c r="P18" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="U18" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="V18" t="n">
         <v>7.2</v>
       </c>
       <c r="W18" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="X18" t="n">
         <v>12.5</v>
@@ -2483,19 +2483,19 @@
         <v>500</v>
       </c>
       <c r="AE18" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF18" t="n">
         <v>16.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH18" t="n">
         <v>45</v>
       </c>
       <c r="AI18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="n">
         <v>37</v>
@@ -2894,10 +2894,10 @@
         <v>2.05</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I22" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J22" t="n">
         <v>1.03</v>
@@ -2909,7 +2909,7 @@
         <v>1.17</v>
       </c>
       <c r="M22" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="N22" t="n">
         <v>1.52</v>
@@ -2933,13 +2933,13 @@
         <v>11.5</v>
       </c>
       <c r="U22" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V22" t="n">
         <v>8.75</v>
       </c>
       <c r="W22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X22" t="n">
         <v>14</v>
@@ -2951,7 +2951,7 @@
         <v>9</v>
       </c>
       <c r="AA22" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AB22" t="n">
         <v>11</v>
@@ -2966,10 +2966,10 @@
         <v>14</v>
       </c>
       <c r="AF22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH22" t="n">
         <v>45</v>
@@ -3280,7 +3280,7 @@
         <v>1.78</v>
       </c>
       <c r="P25" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q25" t="n">
         <v>2.75</v>
@@ -3398,7 +3398,7 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="U26" t="n">
         <v>5.1</v>
@@ -3416,13 +3416,13 @@
         <v>25</v>
       </c>
       <c r="Z26" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA26" t="n">
         <v>8.25</v>
       </c>
       <c r="AB26" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC26" t="n">
         <v>90</v>
@@ -3446,7 +3446,7 @@
         <v>80</v>
       </c>
       <c r="AJ26" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -3502,7 +3502,7 @@
         <v>4.33</v>
       </c>
       <c r="N27" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="O27" t="n">
         <v>2.15</v>
@@ -3618,22 +3618,22 @@
         <v>15</v>
       </c>
       <c r="L28" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M28" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N28" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O28" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P28" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R28" t="n">
         <v>1.8</v>
@@ -3666,13 +3666,13 @@
         <v>9</v>
       </c>
       <c r="AB28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC28" t="n">
         <v>51</v>
       </c>
       <c r="AD28" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE28" t="n">
         <v>17</v>
@@ -3684,7 +3684,7 @@
         <v>17</v>
       </c>
       <c r="AH28" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI28" t="n">
         <v>41</v>
@@ -3752,7 +3752,7 @@
         <v>1.98</v>
       </c>
       <c r="P29" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q29" t="n">
         <v>3</v>
@@ -4083,13 +4083,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I32" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="J32" t="n">
         <v>1.05</v>
@@ -4101,76 +4101,76 @@
         <v>1.27</v>
       </c>
       <c r="M32" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="N32" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O32" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="P32" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="R32" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S32" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="T32" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="U32" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="V32" t="n">
         <v>8.5</v>
       </c>
       <c r="W32" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="X32" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z32" t="n">
         <v>7.7</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB32" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD32" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE32" t="n">
         <v>11</v>
       </c>
       <c r="AF32" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG32" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH32" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI32" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ32" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">

--- a/Jogos_da_Semana_FlashScore_2025-05-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-29.xlsx
@@ -900,22 +900,22 @@
         <v>2.8</v>
       </c>
       <c r="J4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L4" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P4" t="n">
         <v>1.3</v>
@@ -1046,13 +1046,13 @@
         <v>3.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U5" t="n">
         <v>12</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H6" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I6" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="J6" t="n">
         <v>1.08</v>
@@ -1153,7 +1153,7 @@
         <v>1.36</v>
       </c>
       <c r="M6" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="N6" t="n">
         <v>2.05</v>
@@ -1168,7 +1168,7 @@
         <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S6" t="n">
         <v>1.65</v>
@@ -1177,13 +1177,13 @@
         <v>5.6</v>
       </c>
       <c r="U6" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="V6" t="n">
         <v>8.25</v>
       </c>
       <c r="W6" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="X6" t="n">
         <v>13.5</v>
@@ -1195,10 +1195,10 @@
         <v>6.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
         <v>120</v>
@@ -1207,16 +1207,16 @@
         <v>800</v>
       </c>
       <c r="AE6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF6" t="n">
         <v>40</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AI6" t="n">
         <v>90</v>
@@ -1256,36 +1256,92 @@
           <t>Inter Palmira</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.25</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6</v>
+      </c>
+      <c r="U7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="V7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1318,36 +1374,90 @@
           <t>Tigres</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.5</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="V8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>120</v>
+      </c>
       <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>200</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1381,88 +1491,90 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
         <v>3.15</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M9" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="N9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2.27</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.22</v>
-      </c>
       <c r="R9" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="S9" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="U9" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="V9" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="W9" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AA9" t="n">
         <v>6.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AD9" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1000</v>
+      </c>
       <c r="AE9" t="n">
-        <v>7.7</v>
+        <v>9.25</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI9" t="n">
         <v>45</v>
       </c>
-      <c r="AI9" t="n">
-        <v>35</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1497,88 +1609,90 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N10" t="n">
-        <v>2.27</v>
+        <v>2.02</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="P10" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="R10" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S10" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="U10" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="V10" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="W10" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="X10" t="n">
         <v>28</v>
       </c>
       <c r="Y10" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AC10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD10" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>800</v>
+      </c>
       <c r="AE10" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="AF10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -1853,13 +1967,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H13" t="n">
         <v>2.57</v>
       </c>
       <c r="I13" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="J13" t="n">
         <v>1.2</v>
@@ -1874,16 +1988,16 @@
         <v>1.87</v>
       </c>
       <c r="N13" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.27</v>
       </c>
       <c r="P13" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R13" t="n">
         <v>2.65</v>
@@ -1892,19 +2006,19 @@
         <v>1.42</v>
       </c>
       <c r="T13" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="U13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V13" t="n">
         <v>11</v>
       </c>
       <c r="W13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y13" t="n">
         <v>70</v>
@@ -1923,19 +2037,19 @@
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AF13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI13" t="n">
         <v>70</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>65</v>
       </c>
       <c r="AJ13" t="n">
         <v>110</v>
@@ -1973,28 +2087,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="H14" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="I14" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J14" t="n">
         <v>1.14</v>
       </c>
       <c r="K14" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="L14" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M14" t="n">
         <v>2.18</v>
       </c>
       <c r="N14" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="O14" t="n">
         <v>1.39</v>
@@ -2006,22 +2120,22 @@
         <v>2.18</v>
       </c>
       <c r="R14" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S14" t="n">
         <v>1.6</v>
       </c>
       <c r="T14" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="U14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V14" t="n">
         <v>11.25</v>
       </c>
       <c r="W14" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X14" t="n">
         <v>32</v>
@@ -2030,13 +2144,13 @@
         <v>55</v>
       </c>
       <c r="Z14" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="AA14" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="n">
         <v>150</v>
@@ -2046,7 +2160,7 @@
         <v>5.9</v>
       </c>
       <c r="AF14" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG14" t="n">
         <v>11.25</v>
@@ -2093,23 +2207,23 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="H15" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
-        <v>4.25</v>
+        <v>5.1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O15" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P15" t="n">
         <v>1.37</v>
@@ -2120,55 +2234,55 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="U15" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="V15" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="W15" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="X15" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="Y15" t="n">
         <v>23</v>
       </c>
       <c r="Z15" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD15" t="n">
         <v>500</v>
       </c>
       <c r="AE15" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF15" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AI15" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AJ15" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
@@ -2423,13 +2537,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="H18" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I18" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -2445,36 +2559,36 @@
         <v>1.39</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="U18" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="V18" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="W18" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
         <v>24</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA18" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC18" t="n">
         <v>65</v>
@@ -2483,22 +2597,22 @@
         <v>500</v>
       </c>
       <c r="AE18" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF18" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AH18" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI18" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ18" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -2533,49 +2647,49 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="I19" t="n">
         <v>1.6</v>
       </c>
       <c r="J19" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="M19" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O19" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P19" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S19" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="T19" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="U19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V19" t="n">
         <v>15</v>
@@ -2587,28 +2701,28 @@
         <v>40</v>
       </c>
       <c r="Y19" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB19" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD19" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE19" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AG19" t="n">
         <v>8</v>
@@ -2620,7 +2734,7 @@
         <v>11.75</v>
       </c>
       <c r="AJ19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -2891,10 +3005,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="H22" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I22" t="n">
         <v>3.2</v>
@@ -2918,28 +3032,28 @@
         <v>2.37</v>
       </c>
       <c r="P22" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="R22" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S22" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="T22" t="n">
         <v>11.5</v>
       </c>
       <c r="U22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V22" t="n">
         <v>8.75</v>
       </c>
       <c r="W22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X22" t="n">
         <v>14</v>
@@ -2951,10 +3065,10 @@
         <v>9</v>
       </c>
       <c r="AA22" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AC22" t="n">
         <v>35</v>
@@ -2966,7 +3080,7 @@
         <v>14</v>
       </c>
       <c r="AF22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG22" t="n">
         <v>11.25</v>
@@ -2978,7 +3092,7 @@
         <v>24</v>
       </c>
       <c r="AJ22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -3375,23 +3489,23 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="H26" t="n">
-        <v>4.65</v>
+        <v>5.1</v>
       </c>
       <c r="I26" t="n">
-        <v>8.25</v>
+        <v>9.75</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
@@ -3401,52 +3515,52 @@
         <v>5.7</v>
       </c>
       <c r="U26" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="V26" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="W26" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="X26" t="n">
         <v>9.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z26" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AA26" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="AB26" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AC26" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AD26" t="n">
         <v>500</v>
       </c>
       <c r="AE26" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AG26" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AH26" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="AI26" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AJ26" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -3969,10 +4083,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H31" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I31" t="n">
         <v>4.7</v>
@@ -3980,72 +4094,72 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="M31" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="N31" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="O31" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="S31" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="T31" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="U31" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="V31" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W31" t="n">
         <v>13</v>
       </c>
       <c r="X31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y31" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF31" t="n">
         <v>28</v>
       </c>
-      <c r="Z31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC31" t="n">
+      <c r="AG31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH31" t="n">
         <v>80</v>
       </c>
-      <c r="AD31" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>90</v>
-      </c>
       <c r="AI31" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ31" t="n">
         <v>50</v>
@@ -4083,94 +4197,94 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="H32" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="I32" t="n">
-        <v>3.55</v>
+        <v>4.65</v>
       </c>
       <c r="J32" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K32" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="M32" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="N32" t="n">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="O32" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="P32" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S32" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="U32" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="V32" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W32" t="n">
+        <v>12</v>
+      </c>
+      <c r="X32" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z32" t="n">
         <v>8.5</v>
       </c>
-      <c r="W32" t="n">
-        <v>16</v>
-      </c>
-      <c r="X32" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>7.7</v>
-      </c>
       <c r="AA32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB32" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC32" t="n">
         <v>65</v>
       </c>
       <c r="AD32" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE32" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AG32" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH32" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AI32" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AJ32" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
@@ -4448,36 +4562,90 @@
           <t>Vorskla Poltava</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.95</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U35" t="n">
+        <v>18</v>
+      </c>
+      <c r="V35" t="n">
+        <v>14</v>
+      </c>
+      <c r="W35" t="n">
+        <v>55</v>
+      </c>
+      <c r="X35" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>120</v>
+      </c>
       <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr"/>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
+      <c r="AE35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4510,36 +4678,92 @@
           <t>Metalist 1925</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.6</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T36" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="U36" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="V36" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W36" t="n">
+        <v>29</v>
+      </c>
+      <c r="X36" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-05-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-29.xlsx
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
         <v>1.04</v>
@@ -1058,10 +1058,10 @@
         <v>12</v>
       </c>
       <c r="V5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X5" t="n">
         <v>17</v>
@@ -1091,7 +1091,7 @@
         <v>15</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
         <v>29</v>
@@ -1100,7 +1100,7 @@
         <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -1141,7 +1141,7 @@
         <v>3.65</v>
       </c>
       <c r="I6" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="J6" t="n">
         <v>1.08</v>
@@ -1216,7 +1216,7 @@
         <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AI6" t="n">
         <v>90</v>
@@ -1257,90 +1257,90 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="I7" t="n">
-        <v>4.25</v>
+        <v>4.6</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="O7" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="P7" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.35</v>
+        <v>2.52</v>
       </c>
       <c r="R7" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="S7" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="U7" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="V7" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W7" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Z7" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AB7" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AE7" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="n">
         <v>45</v>
       </c>
       <c r="AJ7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -1375,76 +1375,78 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>4.35</v>
       </c>
       <c r="I8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="M8" t="n">
-        <v>2.92</v>
+        <v>3.45</v>
       </c>
       <c r="N8" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="O8" t="n">
-        <v>1.72</v>
+        <v>1.98</v>
       </c>
       <c r="P8" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="R8" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="T8" t="n">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
       <c r="U8" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="V8" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W8" t="n">
         <v>8.5</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AA8" t="n">
         <v>8.75</v>
       </c>
-      <c r="X8" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>8</v>
-      </c>
       <c r="AB8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AD8" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>800</v>
+      </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG8" t="n">
         <v>24</v>
@@ -1453,10 +1455,10 @@
         <v>200</v>
       </c>
       <c r="AI8" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ8" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -1491,10 +1493,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H9" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
@@ -1502,52 +1504,52 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M9" t="n">
-        <v>2.52</v>
+        <v>2.65</v>
       </c>
       <c r="N9" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="O9" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="P9" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="R9" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S9" t="n">
         <v>1.7</v>
       </c>
       <c r="T9" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="U9" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="V9" t="n">
         <v>8.5</v>
       </c>
       <c r="W9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="X9" t="n">
         <v>16</v>
       </c>
-      <c r="X9" t="n">
-        <v>17</v>
-      </c>
       <c r="Y9" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB9" t="n">
         <v>17.5</v>
@@ -1556,13 +1558,13 @@
         <v>100</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE9" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
         <v>14</v>
@@ -1574,7 +1576,7 @@
         <v>45</v>
       </c>
       <c r="AJ9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1612,87 +1614,87 @@
         <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I10" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N10" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="O10" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="P10" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="R10" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="S10" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="T10" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="U10" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="V10" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="W10" t="n">
         <v>37</v>
       </c>
       <c r="X10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AD10" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="AE10" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="AF10" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -1967,43 +1969,43 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="H13" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="I13" t="n">
         <v>4.05</v>
       </c>
       <c r="J13" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="K13" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M13" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="N13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R13" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="S13" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T13" t="n">
         <v>4.6</v>
@@ -2012,10 +2014,10 @@
         <v>8.5</v>
       </c>
       <c r="V13" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="W13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X13" t="n">
         <v>29</v>
@@ -2024,35 +2026,35 @@
         <v>70</v>
       </c>
       <c r="Z13" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="AA13" t="n">
         <v>5.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC13" t="n">
         <v>250</v>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AF13" t="n">
         <v>19</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -2647,13 +2649,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="H19" t="n">
         <v>4.05</v>
       </c>
       <c r="I19" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J19" t="n">
         <v>1.04</v>
@@ -2662,7 +2664,7 @@
         <v>8.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
@@ -2671,13 +2673,13 @@
         <v>1.62</v>
       </c>
       <c r="O19" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="P19" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="R19" t="n">
         <v>1.7</v>
@@ -2686,22 +2688,22 @@
         <v>2.05</v>
       </c>
       <c r="T19" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="U19" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W19" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="X19" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Y19" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z19" t="n">
         <v>8.5</v>
@@ -2710,31 +2712,31 @@
         <v>8</v>
       </c>
       <c r="AB19" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD19" t="n">
         <v>400</v>
       </c>
       <c r="AE19" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF19" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AG19" t="n">
         <v>8</v>
       </c>
       <c r="AH19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AI19" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -3376,22 +3378,22 @@
         <v>3.1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M25" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N25" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="O25" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="P25" t="n">
         <v>1.4</v>
@@ -3400,10 +3402,10 @@
         <v>2.75</v>
       </c>
       <c r="R25" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T25" t="n">
         <v>8</v>
@@ -3418,13 +3420,13 @@
         <v>23</v>
       </c>
       <c r="X25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y25" t="n">
         <v>29</v>
       </c>
       <c r="Z25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA25" t="n">
         <v>6</v>
@@ -3451,7 +3453,7 @@
         <v>34</v>
       </c>
       <c r="AI25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ25" t="n">
         <v>34</v>
@@ -3738,10 +3740,10 @@
         <v>4.33</v>
       </c>
       <c r="N28" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O28" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P28" t="n">
         <v>1.3</v>
@@ -3765,7 +3767,7 @@
         <v>8.5</v>
       </c>
       <c r="W28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X28" t="n">
         <v>12</v>
@@ -3798,7 +3800,7 @@
         <v>17</v>
       </c>
       <c r="AH28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI28" t="n">
         <v>41</v>
@@ -4086,71 +4088,71 @@
         <v>1.65</v>
       </c>
       <c r="H31" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="M31" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="N31" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="O31" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S31" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="T31" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="U31" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="V31" t="n">
         <v>8</v>
       </c>
       <c r="W31" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X31" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z31" t="n">
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA31" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC31" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD31" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AE31" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
         <v>15</v>
@@ -4162,7 +4164,7 @@
         <v>45</v>
       </c>
       <c r="AJ31" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
@@ -4200,10 +4202,10 @@
         <v>1.62</v>
       </c>
       <c r="H32" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="I32" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="J32" t="n">
         <v>1.04</v>
@@ -4212,31 +4214,31 @@
         <v>8.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M32" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="N32" t="n">
         <v>1.65</v>
       </c>
       <c r="O32" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="P32" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="Q32" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="R32" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T32" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U32" t="n">
         <v>8.25</v>
@@ -4245,7 +4247,7 @@
         <v>8.25</v>
       </c>
       <c r="W32" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="X32" t="n">
         <v>12</v>
@@ -4260,22 +4262,22 @@
         <v>8</v>
       </c>
       <c r="AB32" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC32" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD32" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG32" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>15</v>
       </c>
       <c r="AH32" t="n">
         <v>75</v>
@@ -4682,7 +4684,7 @@
         <v>2.62</v>
       </c>
       <c r="H36" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I36" t="n">
         <v>2.6</v>
@@ -4690,79 +4692,79 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="M36" t="n">
-        <v>2.45</v>
+        <v>2.92</v>
       </c>
       <c r="N36" t="n">
-        <v>2.22</v>
+        <v>1.9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="P36" t="n">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="R36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S36" t="n">
         <v>1.93</v>
       </c>
-      <c r="S36" t="n">
-        <v>1.7</v>
-      </c>
       <c r="T36" t="n">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="U36" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="V36" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="W36" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X36" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y36" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Z36" t="n">
-        <v>7.3</v>
+        <v>9</v>
       </c>
       <c r="AA36" t="n">
         <v>6</v>
       </c>
       <c r="AB36" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC36" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AE36" t="n">
-        <v>6.9</v>
+        <v>8.25</v>
       </c>
       <c r="AF36" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AG36" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI36" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AJ36" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-29.xlsx
@@ -659,7 +659,7 @@
         <v>1.07</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.33</v>
@@ -704,7 +704,7 @@
         <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA2" t="n">
         <v>6</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
         <v>1.05</v>
@@ -1141,7 +1141,7 @@
         <v>3.65</v>
       </c>
       <c r="I6" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="J6" t="n">
         <v>1.08</v>
@@ -1150,7 +1150,7 @@
         <v>6.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M6" t="n">
         <v>2.87</v>
@@ -1189,7 +1189,7 @@
         <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z6" t="n">
         <v>6.5</v>
@@ -1210,13 +1210,13 @@
         <v>13.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG6" t="n">
         <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AI6" t="n">
         <v>90</v>
@@ -1257,87 +1257,87 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H7" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="N7" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="O7" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="R7" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="S7" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="T7" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="U7" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="V7" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X7" t="n">
         <v>13</v>
       </c>
-      <c r="X7" t="n">
-        <v>14</v>
-      </c>
       <c r="Y7" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH7" t="n">
         <v>80</v>
       </c>
       <c r="AI7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ7" t="n">
         <v>50</v>
@@ -1389,7 +1389,7 @@
         <v>1.22</v>
       </c>
       <c r="M8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="N8" t="n">
         <v>1.65</v>
@@ -1404,10 +1404,10 @@
         <v>2.55</v>
       </c>
       <c r="R8" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S8" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T8" t="n">
         <v>6.7</v>
@@ -1422,13 +1422,13 @@
         <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y8" t="n">
         <v>28</v>
       </c>
       <c r="Z8" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
         <v>8.75</v>
@@ -1437,7 +1437,7 @@
         <v>20</v>
       </c>
       <c r="AC8" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD8" t="n">
         <v>800</v>
@@ -1446,10 +1446,10 @@
         <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH8" t="n">
         <v>200</v>
@@ -1496,10 +1496,10 @@
         <v>1.87</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -1546,13 +1546,13 @@
         <v>32</v>
       </c>
       <c r="Z9" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA9" t="n">
         <v>6.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC9" t="n">
         <v>100</v>
@@ -1614,24 +1614,24 @@
         <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I10" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.85</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.75</v>
       </c>
       <c r="P10" t="n">
         <v>1.39</v>
@@ -1640,61 +1640,61 @@
         <v>2.57</v>
       </c>
       <c r="R10" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="T10" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="U10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="V10" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="W10" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X10" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>26</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -1969,92 +1969,92 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.62</v>
+        <v>2.87</v>
       </c>
       <c r="I13" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="J13" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="K13" t="n">
-        <v>4.15</v>
+        <v>5.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="M13" t="n">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
       <c r="N13" t="n">
-        <v>3.3</v>
+        <v>2.65</v>
       </c>
       <c r="O13" t="n">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="P13" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="R13" t="n">
-        <v>2.57</v>
+        <v>2.2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="T13" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="U13" t="n">
         <v>8.5</v>
       </c>
       <c r="V13" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="W13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="X13" t="n">
         <v>22</v>
       </c>
-      <c r="X13" t="n">
-        <v>29</v>
-      </c>
       <c r="Y13" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="Z13" t="n">
-        <v>4.15</v>
+        <v>5.1</v>
       </c>
       <c r="AA13" t="n">
         <v>5.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="AF13" t="n">
         <v>19</v>
       </c>
       <c r="AG13" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AH13" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AI13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>65</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -2649,10 +2649,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H19" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
         <v>1.57</v>
@@ -2673,7 +2673,7 @@
         <v>1.62</v>
       </c>
       <c r="O19" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="P19" t="n">
         <v>1.33</v>
@@ -2688,13 +2688,13 @@
         <v>2.05</v>
       </c>
       <c r="T19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="U19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V19" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="W19" t="n">
         <v>90</v>
@@ -2703,7 +2703,7 @@
         <v>45</v>
       </c>
       <c r="Y19" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z19" t="n">
         <v>8.5</v>
@@ -2712,10 +2712,10 @@
         <v>8</v>
       </c>
       <c r="AB19" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD19" t="n">
         <v>400</v>
@@ -2733,10 +2733,10 @@
         <v>12</v>
       </c>
       <c r="AI19" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -3372,7 +3372,7 @@
         <v>2.38</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
         <v>3.1</v>
@@ -3381,7 +3381,7 @@
         <v>1.07</v>
       </c>
       <c r="K25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.33</v>
@@ -3390,16 +3390,16 @@
         <v>3.25</v>
       </c>
       <c r="N25" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P25" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R25" t="n">
         <v>1.8</v>
@@ -3408,7 +3408,7 @@
         <v>1.95</v>
       </c>
       <c r="T25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U25" t="n">
         <v>11</v>
@@ -3423,31 +3423,31 @@
         <v>21</v>
       </c>
       <c r="Y25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA25" t="n">
         <v>6</v>
       </c>
       <c r="AB25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC25" t="n">
         <v>51</v>
       </c>
       <c r="AD25" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
         <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
         <v>34</v>
@@ -3491,78 +3491,78 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="H26" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="I26" t="n">
-        <v>9.75</v>
+        <v>7.1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="O26" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="U26" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="V26" t="n">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="W26" t="n">
-        <v>5.9</v>
+        <v>7.1</v>
       </c>
       <c r="X26" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y26" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Z26" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AA26" t="n">
-        <v>9.25</v>
+        <v>7.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AC26" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="n">
         <v>500</v>
       </c>
       <c r="AE26" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="AF26" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG26" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AH26" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="AI26" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AJ26" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H27" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I27" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J27" t="n">
         <v>1.03</v>
@@ -3645,7 +3645,7 @@
         <v>8.5</v>
       </c>
       <c r="W27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X27" t="n">
         <v>13</v>
@@ -4085,41 +4085,41 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H31" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="I31" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="M31" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="N31" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S31" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="T31" t="n">
-        <v>7.3</v>
+        <v>8.25</v>
       </c>
       <c r="U31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V31" t="n">
         <v>8</v>
@@ -4128,31 +4128,31 @@
         <v>12.5</v>
       </c>
       <c r="X31" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z31" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AD31" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AE31" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG31" t="n">
         <v>15</v>
@@ -4161,10 +4161,10 @@
         <v>80</v>
       </c>
       <c r="AI31" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ31" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
@@ -4199,94 +4199,94 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H32" t="n">
         <v>4.05</v>
       </c>
       <c r="I32" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
       <c r="J32" t="n">
         <v>1.04</v>
       </c>
       <c r="K32" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="L32" t="n">
         <v>1.21</v>
       </c>
       <c r="M32" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R32" t="n">
         <v>1.65</v>
       </c>
-      <c r="O32" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.7</v>
-      </c>
       <c r="S32" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="T32" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U32" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="V32" t="n">
         <v>8.25</v>
       </c>
       <c r="W32" t="n">
+        <v>13</v>
+      </c>
+      <c r="X32" t="n">
         <v>12.5</v>
       </c>
-      <c r="X32" t="n">
-        <v>12</v>
-      </c>
       <c r="Y32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z32" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA32" t="n">
         <v>8</v>
       </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD32" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE32" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG32" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH32" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AI32" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ32" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
@@ -4333,7 +4333,7 @@
         <v>1.04</v>
       </c>
       <c r="K33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L33" t="n">
         <v>1.22</v>
@@ -4446,16 +4446,16 @@
         <v>2.2</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
         <v>3.1</v>
       </c>
       <c r="J34" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L34" t="n">
         <v>1.25</v>
@@ -4464,10 +4464,10 @@
         <v>3.75</v>
       </c>
       <c r="N34" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O34" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P34" t="n">
         <v>1.33</v>
@@ -4488,7 +4488,7 @@
         <v>12</v>
       </c>
       <c r="V34" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W34" t="n">
         <v>21</v>
@@ -4521,7 +4521,7 @@
         <v>17</v>
       </c>
       <c r="AG34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH34" t="n">
         <v>34</v>
@@ -4681,90 +4681,90 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.62</v>
+        <v>2.42</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M36" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="N36" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="O36" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="P36" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="R36" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S36" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="T36" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U36" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="V36" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W36" t="n">
+        <v>26</v>
+      </c>
+      <c r="X36" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z36" t="n">
         <v>9.75</v>
       </c>
-      <c r="W36" t="n">
-        <v>30</v>
-      </c>
-      <c r="X36" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>9</v>
-      </c>
       <c r="AA36" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB36" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD36" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE36" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH36" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AI36" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ36" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-29.xlsx
@@ -659,19 +659,19 @@
         <v>1.07</v>
       </c>
       <c r="K2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P2" t="n">
         <v>1.44</v>
@@ -1257,78 +1257,78 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="M7" t="n">
-        <v>3.15</v>
+        <v>2.87</v>
       </c>
       <c r="N7" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="O7" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="P7" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="R7" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="S7" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="U7" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="V7" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Z7" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AD7" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
         <v>15.5</v>
@@ -1340,7 +1340,7 @@
         <v>50</v>
       </c>
       <c r="AJ7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1375,27 +1375,27 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M8" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N8" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="O8" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="P8" t="n">
         <v>1.39</v>
@@ -1404,13 +1404,13 @@
         <v>2.55</v>
       </c>
       <c r="R8" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S8" t="n">
         <v>1.7</v>
       </c>
       <c r="T8" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="U8" t="n">
         <v>6.3</v>
@@ -1419,37 +1419,37 @@
         <v>8.25</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="Y8" t="n">
         <v>28</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AB8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
         <v>90</v>
       </c>
       <c r="AD8" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="n">
         <v>200</v>
@@ -1493,13 +1493,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -1522,22 +1522,22 @@
         <v>2.35</v>
       </c>
       <c r="R9" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S9" t="n">
         <v>1.7</v>
       </c>
       <c r="T9" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="U9" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="V9" t="n">
         <v>8.5</v>
       </c>
       <c r="W9" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="X9" t="n">
         <v>16</v>
@@ -1549,28 +1549,28 @@
         <v>8.25</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC9" t="n">
         <v>100</v>
       </c>
       <c r="AD9" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI9" t="n">
         <v>45</v>
@@ -1729,58 +1729,58 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="K11" t="n">
         <v>3.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="M11" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="N11" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O11" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P11" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="R11" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="T11" t="n">
         <v>4.7</v>
       </c>
       <c r="U11" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="V11" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="W11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X11" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y11" t="n">
         <v>75</v>
@@ -1789,7 +1789,7 @@
         <v>3.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AB11" t="n">
         <v>24</v>
@@ -1799,16 +1799,16 @@
       </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AF11" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI11" t="n">
         <v>70</v>
@@ -1849,13 +1849,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H12" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="J12" t="n">
         <v>1.19</v>
@@ -1888,7 +1888,7 @@
         <v>1.57</v>
       </c>
       <c r="T12" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="U12" t="n">
         <v>17.5</v>
@@ -1897,7 +1897,7 @@
         <v>13.5</v>
       </c>
       <c r="W12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="X12" t="n">
         <v>50</v>
@@ -1909,10 +1909,10 @@
         <v>4.15</v>
       </c>
       <c r="AA12" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AB12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
         <v>150</v>
@@ -1922,16 +1922,16 @@
         <v>5.4</v>
       </c>
       <c r="AF12" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
         <v>32</v>
       </c>
       <c r="AI12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ12" t="n">
         <v>55</v>
@@ -1969,31 +1969,31 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="H13" t="n">
-        <v>2.87</v>
+        <v>2.67</v>
       </c>
       <c r="I13" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="J13" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K13" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="M13" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="N13" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P13" t="n">
         <v>1.57</v>
@@ -2002,56 +2002,56 @@
         <v>2.25</v>
       </c>
       <c r="R13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="T13" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="U13" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="V13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W13" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="X13" t="n">
         <v>22</v>
       </c>
       <c r="Y13" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z13" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AC13" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
         <v>14</v>
       </c>
       <c r="AH13" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ13" t="n">
         <v>65</v>
@@ -2089,92 +2089,92 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="H14" t="n">
-        <v>2.72</v>
+        <v>2.87</v>
       </c>
       <c r="I14" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="J14" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K14" t="n">
-        <v>4.85</v>
+        <v>5.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="M14" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="N14" t="n">
-        <v>2.77</v>
+        <v>2.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="P14" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.18</v>
+        <v>2.35</v>
       </c>
       <c r="R14" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="T14" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="U14" t="n">
         <v>13</v>
       </c>
       <c r="V14" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="W14" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X14" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y14" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Z14" t="n">
-        <v>4.85</v>
+        <v>5.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AC14" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="AF14" t="n">
         <v>11.75</v>
       </c>
       <c r="AG14" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AH14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AJ14" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
@@ -2215,7 +2215,7 @@
         <v>3.75</v>
       </c>
       <c r="I15" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="U15" t="n">
         <v>5.9</v>
@@ -2269,16 +2269,16 @@
         <v>500</v>
       </c>
       <c r="AE15" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI15" t="n">
         <v>40</v>
@@ -2429,29 +2429,29 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O17" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P17" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
@@ -2459,25 +2459,25 @@
         <v>5.3</v>
       </c>
       <c r="U17" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="V17" t="n">
         <v>6.9</v>
       </c>
       <c r="W17" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="X17" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y17" t="n">
         <v>23</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AB17" t="n">
         <v>15.5</v>
@@ -2486,25 +2486,25 @@
         <v>70</v>
       </c>
       <c r="AD17" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF17" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH17" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -2539,61 +2539,61 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="H18" t="n">
         <v>3.35</v>
       </c>
       <c r="I18" t="n">
-        <v>3.6</v>
+        <v>4.05</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="O18" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P18" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="U18" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="V18" t="n">
         <v>7.3</v>
       </c>
       <c r="W18" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="X18" t="n">
         <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA18" t="n">
         <v>5.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC18" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="n">
         <v>500</v>
@@ -2602,19 +2602,19 @@
         <v>8.25</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AH18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AI18" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AJ18" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
@@ -3010,10 +3010,10 @@
         <v>2.02</v>
       </c>
       <c r="H22" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J22" t="n">
         <v>1.03</v>
@@ -3025,7 +3025,7 @@
         <v>1.17</v>
       </c>
       <c r="M22" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="N22" t="n">
         <v>1.52</v>
@@ -3034,16 +3034,16 @@
         <v>2.37</v>
       </c>
       <c r="P22" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S22" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="T22" t="n">
         <v>11.5</v>
@@ -3052,7 +3052,7 @@
         <v>13</v>
       </c>
       <c r="V22" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W22" t="n">
         <v>21</v>
@@ -3061,16 +3061,16 @@
         <v>14</v>
       </c>
       <c r="Y22" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z22" t="n">
         <v>9</v>
       </c>
       <c r="AA22" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
         <v>35</v>
@@ -3082,7 +3082,7 @@
         <v>14</v>
       </c>
       <c r="AF22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG22" t="n">
         <v>11.25</v>
@@ -3091,7 +3091,7 @@
         <v>45</v>
       </c>
       <c r="AI22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ22" t="n">
         <v>25</v>
@@ -3491,78 +3491,78 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="H26" t="n">
-        <v>4.3</v>
+        <v>4.65</v>
       </c>
       <c r="I26" t="n">
-        <v>7.1</v>
+        <v>8.25</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="O26" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="U26" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="V26" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="W26" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="X26" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z26" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AC26" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AD26" t="n">
         <v>500</v>
       </c>
       <c r="AE26" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AH26" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AI26" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
@@ -4085,27 +4085,27 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="H31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I31" t="n">
         <v>3.95</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4.6</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="M31" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="N31" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O31" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
@@ -4119,28 +4119,28 @@
         <v>8.25</v>
       </c>
       <c r="U31" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="V31" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W31" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="X31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y31" t="n">
         <v>22</v>
       </c>
       <c r="Z31" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA31" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC31" t="n">
         <v>55</v>
@@ -4149,22 +4149,22 @@
         <v>350</v>
       </c>
       <c r="AE31" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AG31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AI31" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AJ31" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -4202,46 +4202,46 @@
         <v>1.65</v>
       </c>
       <c r="H32" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="I32" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="J32" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K32" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="L32" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="N32" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="O32" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P32" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="R32" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S32" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T32" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U32" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="V32" t="n">
         <v>8.25</v>
@@ -4250,31 +4250,31 @@
         <v>13</v>
       </c>
       <c r="X32" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y32" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA32" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB32" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC32" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD32" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE32" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AF32" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG32" t="n">
         <v>14</v>
@@ -4283,10 +4283,10 @@
         <v>65</v>
       </c>
       <c r="AI32" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ32" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -4321,13 +4321,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H33" t="n">
         <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J33" t="n">
         <v>1.04</v>
@@ -4366,10 +4366,10 @@
         <v>13</v>
       </c>
       <c r="V33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X33" t="n">
         <v>19</v>
@@ -4402,7 +4402,7 @@
         <v>10</v>
       </c>
       <c r="AH33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI33" t="n">
         <v>21</v>
@@ -4470,10 +4470,10 @@
         <v>1.95</v>
       </c>
       <c r="P34" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
         <v>1.67</v>
@@ -4482,10 +4482,10 @@
         <v>2.1</v>
       </c>
       <c r="T34" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V34" t="n">
         <v>9.5</v>
@@ -4497,10 +4497,10 @@
         <v>17</v>
       </c>
       <c r="Y34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA34" t="n">
         <v>6.5</v>
@@ -4681,90 +4681,90 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="H36" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M36" t="n">
-        <v>3.05</v>
+        <v>2.77</v>
       </c>
       <c r="N36" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="O36" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="P36" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="R36" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="S36" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="T36" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="U36" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V36" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W36" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X36" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y36" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Z36" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AB36" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD36" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE36" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH36" t="n">
         <v>35</v>
       </c>
       <c r="AI36" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ36" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-29.xlsx
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J5" t="n">
         <v>1.04</v>
@@ -1055,7 +1055,7 @@
         <v>9.5</v>
       </c>
       <c r="U5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V5" t="n">
         <v>9.5</v>
@@ -1064,7 +1064,7 @@
         <v>23</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
         <v>23</v>
@@ -1085,7 +1085,7 @@
         <v>151</v>
       </c>
       <c r="AE5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF5" t="n">
         <v>15</v>
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H8" t="n">
         <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -1389,13 +1389,13 @@
         <v>1.24</v>
       </c>
       <c r="M8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N8" t="n">
         <v>1.72</v>
       </c>
       <c r="O8" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P8" t="n">
         <v>1.39</v>
@@ -1404,7 +1404,7 @@
         <v>2.55</v>
       </c>
       <c r="R8" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S8" t="n">
         <v>1.7</v>
@@ -1413,13 +1413,13 @@
         <v>6.4</v>
       </c>
       <c r="U8" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="V8" t="n">
         <v>8.25</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X8" t="n">
         <v>11.75</v>
@@ -1428,34 +1428,34 @@
         <v>28</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AA8" t="n">
         <v>8.25</v>
       </c>
       <c r="AB8" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD8" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE8" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AF8" t="n">
         <v>50</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH8" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AI8" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="n">
         <v>75</v>
@@ -1729,52 +1729,52 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="H11" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I11" t="n">
         <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="M11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="N11" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="O11" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R11" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="S11" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="T11" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="U11" t="n">
         <v>10</v>
       </c>
       <c r="V11" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="W11" t="n">
         <v>30</v>
@@ -1783,38 +1783,38 @@
         <v>35</v>
       </c>
       <c r="Y11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Z11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AF11" t="n">
         <v>20</v>
       </c>
       <c r="AG11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH11" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ11" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -1849,92 +1849,92 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H12" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="I12" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="J12" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="K12" t="n">
-        <v>4.15</v>
+        <v>4.45</v>
       </c>
       <c r="L12" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="M12" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="N12" t="n">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="R12" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="S12" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="T12" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="U12" t="n">
         <v>17.5</v>
       </c>
       <c r="V12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="W12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="X12" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Y12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Z12" t="n">
-        <v>4.15</v>
+        <v>4.45</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI12" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -2089,92 +2089,92 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.82</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
         <v>1.11</v>
       </c>
       <c r="K14" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M14" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="N14" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="O14" t="n">
         <v>1.5</v>
       </c>
       <c r="P14" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q14" t="n">
         <v>2.35</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S14" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T14" t="n">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="U14" t="n">
-        <v>13</v>
+        <v>9.75</v>
       </c>
       <c r="V14" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="W14" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="X14" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z14" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>11.75</v>
+        <v>15</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AI14" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AJ14" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -2429,23 +2429,23 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="O17" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="P17" t="n">
         <v>1.37</v>
@@ -2456,52 +2456,52 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="U17" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="V17" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="W17" t="n">
         <v>8.25</v>
       </c>
       <c r="X17" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC17" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD17" t="n">
         <v>500</v>
       </c>
       <c r="AE17" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ17" t="n">
         <v>55</v>
@@ -2539,23 +2539,23 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H18" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>2.07</v>
+        <v>1.87</v>
       </c>
       <c r="O18" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="P18" t="n">
         <v>1.42</v>
@@ -2566,55 +2566,55 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="U18" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="V18" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="W18" t="n">
         <v>11.25</v>
       </c>
       <c r="X18" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="Y18" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z18" t="n">
-        <v>8</v>
+        <v>9.75</v>
       </c>
       <c r="AA18" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AB18" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AD18" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="AF18" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AH18" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>35</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="19">
@@ -3381,7 +3381,7 @@
         <v>1.07</v>
       </c>
       <c r="K25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L25" t="n">
         <v>1.33</v>
@@ -3719,13 +3719,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H28" t="n">
         <v>4.75</v>
       </c>
       <c r="I28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
         <v>1.03</v>
@@ -3752,13 +3752,13 @@
         <v>3.4</v>
       </c>
       <c r="R28" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S28" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U28" t="n">
         <v>7.5</v>
@@ -3794,10 +3794,10 @@
         <v>17</v>
       </c>
       <c r="AF28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH28" t="n">
         <v>67</v>
@@ -3975,7 +3975,7 @@
         <v>1.04</v>
       </c>
       <c r="K30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L30" t="n">
         <v>1.2</v>
@@ -4085,74 +4085,74 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H31" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I31" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="M31" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="N31" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="O31" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S31" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="T31" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="U31" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="V31" t="n">
         <v>8.25</v>
       </c>
       <c r="W31" t="n">
+        <v>15</v>
+      </c>
+      <c r="X31" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB31" t="n">
         <v>14.5</v>
       </c>
-      <c r="X31" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y31" t="n">
+      <c r="AC31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF31" t="n">
         <v>22</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>24</v>
       </c>
       <c r="AG31" t="n">
         <v>13</v>
@@ -4164,7 +4164,7 @@
         <v>35</v>
       </c>
       <c r="AJ31" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
@@ -4202,46 +4202,46 @@
         <v>1.65</v>
       </c>
       <c r="H32" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="I32" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="J32" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K32" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="L32" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M32" t="n">
-        <v>4.3</v>
+        <v>4.05</v>
       </c>
       <c r="N32" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="O32" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="P32" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="R32" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S32" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T32" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="U32" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="V32" t="n">
         <v>8.25</v>
@@ -4250,31 +4250,31 @@
         <v>13</v>
       </c>
       <c r="X32" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y32" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z32" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA32" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB32" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD32" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE32" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF32" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG32" t="n">
         <v>14</v>
@@ -4283,10 +4283,10 @@
         <v>65</v>
       </c>
       <c r="AI32" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ32" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
@@ -4333,7 +4333,7 @@
         <v>1.04</v>
       </c>
       <c r="K33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L33" t="n">
         <v>1.22</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-29.xlsx
@@ -1861,16 +1861,16 @@
         <v>1.17</v>
       </c>
       <c r="K12" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="M12" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="N12" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="O12" t="n">
         <v>1.37</v>
@@ -1882,16 +1882,16 @@
         <v>2.12</v>
       </c>
       <c r="R12" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S12" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T12" t="n">
         <v>7.2</v>
       </c>
       <c r="U12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="V12" t="n">
         <v>13</v>
@@ -1906,7 +1906,7 @@
         <v>60</v>
       </c>
       <c r="Z12" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AA12" t="n">
         <v>5</v>
@@ -1919,13 +1919,13 @@
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AF12" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH12" t="n">
         <v>30</v>
@@ -1969,31 +1969,31 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="I13" t="n">
         <v>4.05</v>
       </c>
       <c r="J13" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="K13" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="M13" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="N13" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="O13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P13" t="n">
         <v>1.57</v>
@@ -2002,44 +2002,44 @@
         <v>2.25</v>
       </c>
       <c r="R13" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S13" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T13" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="U13" t="n">
         <v>9.25</v>
       </c>
       <c r="V13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z13" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="AA13" t="n">
         <v>5.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC13" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF13" t="n">
         <v>21</v>
@@ -2429,23 +2429,23 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="O17" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P17" t="n">
         <v>1.37</v>
@@ -2456,34 +2456,34 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="U17" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="V17" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="W17" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Y17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="n">
         <v>500</v>
@@ -2492,16 +2492,16 @@
         <v>11.75</v>
       </c>
       <c r="AF17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG17" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ17" t="n">
         <v>55</v>
@@ -2539,82 +2539,82 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H18" t="n">
         <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>3.95</v>
+        <v>4.15</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="O18" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P18" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.37</v>
+        <v>2.52</v>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="U18" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="V18" t="n">
         <v>7.1</v>
       </c>
       <c r="W18" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="X18" t="n">
         <v>11.75</v>
       </c>
       <c r="Y18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z18" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AA18" t="n">
         <v>6</v>
       </c>
       <c r="AB18" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC18" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD18" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE18" t="n">
         <v>9.25</v>
       </c>
       <c r="AF18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AH18" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI18" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ18" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
@@ -3491,10 +3491,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H26" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="I26" t="n">
         <v>8.25</v>
@@ -3520,10 +3520,10 @@
         <v>5.1</v>
       </c>
       <c r="V26" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="W26" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="X26" t="n">
         <v>9.5</v>
@@ -3532,22 +3532,22 @@
         <v>25</v>
       </c>
       <c r="Z26" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AA26" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB26" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD26" t="n">
         <v>500</v>
       </c>
       <c r="AE26" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF26" t="n">
         <v>45</v>
@@ -4088,7 +4088,7 @@
         <v>1.8</v>
       </c>
       <c r="H31" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I31" t="n">
         <v>3.9</v>
@@ -4096,16 +4096,16 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N31" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O31" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
@@ -4116,10 +4116,10 @@
         <v>1.93</v>
       </c>
       <c r="T31" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="U31" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V31" t="n">
         <v>8.25</v>
@@ -4128,22 +4128,22 @@
         <v>15</v>
       </c>
       <c r="X31" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y31" t="n">
         <v>24</v>
       </c>
       <c r="Z31" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AA31" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AB31" t="n">
         <v>14.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD31" t="n">
         <v>450</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-29.xlsx
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="n">
         <v>1.04</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I7" t="n">
-        <v>4.6</v>
+        <v>4.85</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1286,37 +1286,37 @@
         <v>2.47</v>
       </c>
       <c r="R7" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S7" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T7" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U7" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="V7" t="n">
         <v>8.25</v>
       </c>
       <c r="W7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X7" t="n">
         <v>14</v>
       </c>
       <c r="Y7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z7" t="n">
         <v>9</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC7" t="n">
         <v>90</v>
@@ -1325,22 +1325,22 @@
         <v>800</v>
       </c>
       <c r="AE7" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -3144,40 +3144,40 @@
         <v>9.25</v>
       </c>
       <c r="L23" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M23" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="N23" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O23" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P23" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="R23" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S23" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="T23" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="U23" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="V23" t="n">
         <v>9.75</v>
       </c>
       <c r="W23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X23" t="n">
         <v>18</v>
@@ -3189,34 +3189,34 @@
         <v>9.25</v>
       </c>
       <c r="AA23" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD23" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AE23" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ23" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -3369,31 +3369,31 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M25" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N25" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O25" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="P25" t="n">
         <v>1.44</v>
@@ -3402,19 +3402,19 @@
         <v>2.63</v>
       </c>
       <c r="R25" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S25" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T25" t="n">
         <v>7.5</v>
       </c>
       <c r="U25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W25" t="n">
         <v>23</v>
@@ -3426,7 +3426,7 @@
         <v>34</v>
       </c>
       <c r="Z25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA25" t="n">
         <v>6</v>
@@ -3441,16 +3441,16 @@
         <v>301</v>
       </c>
       <c r="AE25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI25" t="n">
         <v>26</v>
@@ -4464,10 +4464,10 @@
         <v>3.75</v>
       </c>
       <c r="N34" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O34" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P34" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-29.xlsx
@@ -900,16 +900,16 @@
         <v>2.8</v>
       </c>
       <c r="J4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N4" t="n">
         <v>1.7</v>
@@ -1141,7 +1141,7 @@
         <v>3.65</v>
       </c>
       <c r="I6" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="J6" t="n">
         <v>1.08</v>
@@ -1189,7 +1189,7 @@
         <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z6" t="n">
         <v>6.5</v>
@@ -1210,13 +1210,13 @@
         <v>13.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="n">
         <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AI6" t="n">
         <v>90</v>
@@ -1292,7 +1292,7 @@
         <v>1.72</v>
       </c>
       <c r="T7" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U7" t="n">
         <v>7.4</v>
@@ -1307,13 +1307,13 @@
         <v>14</v>
       </c>
       <c r="Y7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z7" t="n">
         <v>9</v>
       </c>
       <c r="AA7" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB7" t="n">
         <v>17.5</v>
@@ -1496,42 +1496,42 @@
         <v>1.82</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="N9" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="O9" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P9" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="R9" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S9" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T9" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="U9" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="V9" t="n">
         <v>8.5</v>
@@ -1540,43 +1540,43 @@
         <v>14.5</v>
       </c>
       <c r="X9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AF9" t="n">
         <v>22</v>
       </c>
       <c r="AG9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI9" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -1849,37 +1849,37 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H12" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="I12" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="J12" t="n">
         <v>1.17</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="L12" t="n">
         <v>1.65</v>
       </c>
       <c r="M12" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="N12" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
         <v>1.65</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
         <v>2.15</v>
@@ -1888,13 +1888,13 @@
         <v>1.62</v>
       </c>
       <c r="T12" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="U12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="W12" t="n">
         <v>60</v>
@@ -1906,32 +1906,32 @@
         <v>60</v>
       </c>
       <c r="Z12" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AA12" t="n">
         <v>5</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC12" t="n">
         <v>120</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG12" t="n">
         <v>10.25</v>
       </c>
       <c r="AH12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI12" t="n">
         <v>30</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>28</v>
       </c>
       <c r="AJ12" t="n">
         <v>50</v>
@@ -2089,13 +2089,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
         <v>1.11</v>
@@ -2119,7 +2119,7 @@
         <v>1.52</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R14" t="n">
         <v>2.05</v>
@@ -2128,19 +2128,19 @@
         <v>1.7</v>
       </c>
       <c r="T14" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="U14" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="V14" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="X14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
         <v>40</v>
@@ -2149,7 +2149,7 @@
         <v>5.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB14" t="n">
         <v>17.5</v>
@@ -2159,19 +2159,19 @@
       </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AF14" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AH14" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI14" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ14" t="n">
         <v>50</v>
@@ -2319,23 +2319,23 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.15</v>
+        <v>2.57</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I16" t="n">
-        <v>2.18</v>
+        <v>2.62</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P16" t="n">
         <v>1.39</v>
@@ -2346,55 +2346,55 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="U16" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="V16" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="W16" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Y16" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Z16" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD16" t="n">
         <v>400</v>
       </c>
       <c r="AE16" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="AF16" t="n">
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="AG16" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AJ16" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -2429,20 +2429,20 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I17" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="O17" t="n">
         <v>1.7</v>
@@ -2451,21 +2451,21 @@
         <v>1.37</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="U17" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="V17" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="X17" t="n">
         <v>10.75</v>
@@ -2474,10 +2474,10 @@
         <v>25</v>
       </c>
       <c r="Z17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB17" t="n">
         <v>16.5</v>
@@ -2489,13 +2489,13 @@
         <v>500</v>
       </c>
       <c r="AE17" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AF17" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG17" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH17" t="n">
         <v>100</v>
@@ -2504,7 +2504,7 @@
         <v>55</v>
       </c>
       <c r="AJ17" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -2771,90 +2771,90 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="H20" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="M20" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="N20" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="O20" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="P20" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="R20" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S20" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="T20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>25</v>
+      </c>
+      <c r="V20" t="n">
+        <v>12</v>
+      </c>
+      <c r="W20" t="n">
+        <v>50</v>
+      </c>
+      <c r="X20" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y20" t="n">
         <v>21</v>
       </c>
-      <c r="U20" t="n">
-        <v>29</v>
-      </c>
-      <c r="V20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="W20" t="n">
-        <v>60</v>
-      </c>
-      <c r="X20" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>24</v>
-      </c>
       <c r="Z20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB20" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AC20" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AD20" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
       </c>
       <c r="AF20" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -3025,7 +3025,7 @@
         <v>1.17</v>
       </c>
       <c r="M22" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="N22" t="n">
         <v>1.52</v>
@@ -3046,10 +3046,10 @@
         <v>2.55</v>
       </c>
       <c r="T22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="U22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V22" t="n">
         <v>8.5</v>
@@ -3061,7 +3061,7 @@
         <v>14</v>
       </c>
       <c r="Y22" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z22" t="n">
         <v>9</v>
@@ -3073,16 +3073,16 @@
         <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AD22" t="n">
         <v>175</v>
       </c>
       <c r="AE22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG22" t="n">
         <v>11.25</v>
@@ -3091,10 +3091,10 @@
         <v>45</v>
       </c>
       <c r="AI22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -3129,91 +3129,91 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="H23" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.45</v>
+        <v>2.67</v>
       </c>
       <c r="J23" t="n">
         <v>1.03</v>
       </c>
       <c r="K23" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="M23" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="O23" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="P23" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="R23" t="n">
         <v>1.44</v>
       </c>
       <c r="S23" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T23" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="U23" t="n">
+        <v>15</v>
+      </c>
+      <c r="V23" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W23" t="n">
+        <v>27</v>
+      </c>
+      <c r="X23" t="n">
         <v>17</v>
       </c>
-      <c r="V23" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="W23" t="n">
-        <v>32</v>
-      </c>
-      <c r="X23" t="n">
-        <v>18</v>
-      </c>
       <c r="Y23" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA23" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AC23" t="n">
         <v>32</v>
       </c>
       <c r="AD23" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AE23" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AF23" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH23" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AI23" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ23" t="n">
         <v>20</v>
@@ -3254,10 +3254,10 @@
         <v>2.4</v>
       </c>
       <c r="H24" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -3265,34 +3265,34 @@
         <v>1.08</v>
       </c>
       <c r="M24" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="N24" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="O24" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="P24" t="n">
         <v>1.19</v>
       </c>
       <c r="Q24" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="R24" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S24" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V24" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="W24" t="n">
         <v>32</v>
@@ -3307,22 +3307,22 @@
         <v>35</v>
       </c>
       <c r="AA24" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AB24" t="n">
         <v>10.25</v>
       </c>
       <c r="AC24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE24" t="n">
         <v>22</v>
       </c>
-      <c r="AD24" t="n">
-        <v>80</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>21</v>
-      </c>
       <c r="AF24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG24" t="n">
         <v>11</v>
@@ -3331,10 +3331,10 @@
         <v>35</v>
       </c>
       <c r="AI24" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="25">
@@ -3369,13 +3369,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J25" t="n">
         <v>1.08</v>
@@ -3384,10 +3384,10 @@
         <v>8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M25" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N25" t="n">
         <v>2.25</v>
@@ -3396,28 +3396,28 @@
         <v>1.62</v>
       </c>
       <c r="P25" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R25" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S25" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X25" t="n">
         <v>21</v>
@@ -3426,7 +3426,7 @@
         <v>34</v>
       </c>
       <c r="Z25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA25" t="n">
         <v>6</v>
@@ -3438,25 +3438,25 @@
         <v>51</v>
       </c>
       <c r="AD25" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI25" t="n">
         <v>29</v>
       </c>
-      <c r="AI25" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
@@ -3963,7 +3963,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H30" t="n">
         <v>3.6</v>
